--- a/rcads/data/xls/03m_ActivityMethods.xlsx
+++ b/rcads/data/xls/03m_ActivityMethods.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03m_ActivityMethods"/>
   </sheets>
   <definedNames>
-    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$133</definedName>
+    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$166</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1814,6 +1814,369 @@
         <v>5</v>
       </c>
     </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>134</v>
+      </c>
+      <c r="B134" s="0">
+        <v>65</v>
+      </c>
+      <c r="C134" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>135</v>
+      </c>
+      <c r="B135" s="0">
+        <v>65</v>
+      </c>
+      <c r="C135" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>136</v>
+      </c>
+      <c r="B136" s="0">
+        <v>66</v>
+      </c>
+      <c r="C136" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>137</v>
+      </c>
+      <c r="B137" s="0">
+        <v>66</v>
+      </c>
+      <c r="C137" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>138</v>
+      </c>
+      <c r="B138" s="0">
+        <v>67</v>
+      </c>
+      <c r="C138" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>139</v>
+      </c>
+      <c r="B139" s="0">
+        <v>68</v>
+      </c>
+      <c r="C139" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>140</v>
+      </c>
+      <c r="B140" s="0">
+        <v>68</v>
+      </c>
+      <c r="C140" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>141</v>
+      </c>
+      <c r="B141" s="0">
+        <v>68</v>
+      </c>
+      <c r="C141" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>142</v>
+      </c>
+      <c r="B142" s="0">
+        <v>68</v>
+      </c>
+      <c r="C142" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>143</v>
+      </c>
+      <c r="B143" s="0">
+        <v>69</v>
+      </c>
+      <c r="C143" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>144</v>
+      </c>
+      <c r="B144" s="0">
+        <v>69</v>
+      </c>
+      <c r="C144" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>145</v>
+      </c>
+      <c r="B145" s="0">
+        <v>70</v>
+      </c>
+      <c r="C145" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>146</v>
+      </c>
+      <c r="B146" s="0">
+        <v>70</v>
+      </c>
+      <c r="C146" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>147</v>
+      </c>
+      <c r="B147" s="0">
+        <v>71</v>
+      </c>
+      <c r="C147" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>148</v>
+      </c>
+      <c r="B148" s="0">
+        <v>71</v>
+      </c>
+      <c r="C148" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>149</v>
+      </c>
+      <c r="B149" s="0">
+        <v>71</v>
+      </c>
+      <c r="C149" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>150</v>
+      </c>
+      <c r="B150" s="0">
+        <v>71</v>
+      </c>
+      <c r="C150" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>151</v>
+      </c>
+      <c r="B151" s="0">
+        <v>72</v>
+      </c>
+      <c r="C151" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0">
+        <v>152</v>
+      </c>
+      <c r="B152" s="0">
+        <v>72</v>
+      </c>
+      <c r="C152" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0">
+        <v>153</v>
+      </c>
+      <c r="B153" s="0">
+        <v>72</v>
+      </c>
+      <c r="C153" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0">
+        <v>154</v>
+      </c>
+      <c r="B154" s="0">
+        <v>72</v>
+      </c>
+      <c r="C154" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0">
+        <v>155</v>
+      </c>
+      <c r="B155" s="0">
+        <v>74</v>
+      </c>
+      <c r="C155" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0">
+        <v>156</v>
+      </c>
+      <c r="B156" s="0">
+        <v>74</v>
+      </c>
+      <c r="C156" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0">
+        <v>157</v>
+      </c>
+      <c r="B157" s="0">
+        <v>73</v>
+      </c>
+      <c r="C157" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0">
+        <v>158</v>
+      </c>
+      <c r="B158" s="0">
+        <v>73</v>
+      </c>
+      <c r="C158" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0">
+        <v>159</v>
+      </c>
+      <c r="B159" s="0">
+        <v>78</v>
+      </c>
+      <c r="C159" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0">
+        <v>160</v>
+      </c>
+      <c r="B160" s="0">
+        <v>78</v>
+      </c>
+      <c r="C160" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0">
+        <v>161</v>
+      </c>
+      <c r="B161" s="0">
+        <v>77</v>
+      </c>
+      <c r="C161" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0">
+        <v>162</v>
+      </c>
+      <c r="B162" s="0">
+        <v>77</v>
+      </c>
+      <c r="C162" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0">
+        <v>163</v>
+      </c>
+      <c r="B163" s="0">
+        <v>100</v>
+      </c>
+      <c r="C163" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0">
+        <v>164</v>
+      </c>
+      <c r="B164" s="0">
+        <v>100</v>
+      </c>
+      <c r="C164" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0">
+        <v>165</v>
+      </c>
+      <c r="B165" s="0">
+        <v>101</v>
+      </c>
+      <c r="C165" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0">
+        <v>166</v>
+      </c>
+      <c r="B166" s="0">
+        <v>101</v>
+      </c>
+      <c r="C166" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/03m_ActivityMethods.xlsx
+++ b/rcads/data/xls/03m_ActivityMethods.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03m_ActivityMethods"/>
   </sheets>
   <definedNames>
-    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$166</definedName>
+    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$169</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2177,6 +2177,39 @@
         <v>2</v>
       </c>
     </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0">
+        <v>167</v>
+      </c>
+      <c r="B167" s="0">
+        <v>105</v>
+      </c>
+      <c r="C167" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0">
+        <v>168</v>
+      </c>
+      <c r="B168" s="0">
+        <v>107</v>
+      </c>
+      <c r="C168" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0">
+        <v>169</v>
+      </c>
+      <c r="B169" s="0">
+        <v>107</v>
+      </c>
+      <c r="C169" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/03m_ActivityMethods.xlsx
+++ b/rcads/data/xls/03m_ActivityMethods.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03m_ActivityMethods"/>
   </sheets>
   <definedNames>
-    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$169</definedName>
+    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$175</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2210,6 +2210,72 @@
         <v>2</v>
       </c>
     </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0">
+        <v>170</v>
+      </c>
+      <c r="B170" s="0">
+        <v>114</v>
+      </c>
+      <c r="C170" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0">
+        <v>171</v>
+      </c>
+      <c r="B171" s="0">
+        <v>114</v>
+      </c>
+      <c r="C171" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0">
+        <v>172</v>
+      </c>
+      <c r="B172" s="0">
+        <v>114</v>
+      </c>
+      <c r="C172" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0">
+        <v>173</v>
+      </c>
+      <c r="B173" s="0">
+        <v>115</v>
+      </c>
+      <c r="C173" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0">
+        <v>174</v>
+      </c>
+      <c r="B174" s="0">
+        <v>115</v>
+      </c>
+      <c r="C174" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0">
+        <v>175</v>
+      </c>
+      <c r="B175" s="0">
+        <v>115</v>
+      </c>
+      <c r="C175" s="0">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/03m_ActivityMethods.xlsx
+++ b/rcads/data/xls/03m_ActivityMethods.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03m_ActivityMethods"/>
   </sheets>
   <definedNames>
-    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$175</definedName>
+    <definedName name="_03m_ActivityMethods">'_03m_ActivityMethods'!$A$1:$C$181</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2276,6 +2276,72 @@
         <v>2</v>
       </c>
     </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0">
+        <v>176</v>
+      </c>
+      <c r="B176" s="0">
+        <v>117</v>
+      </c>
+      <c r="C176" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0">
+        <v>177</v>
+      </c>
+      <c r="B177" s="0">
+        <v>117</v>
+      </c>
+      <c r="C177" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0">
+        <v>178</v>
+      </c>
+      <c r="B178" s="0">
+        <v>117</v>
+      </c>
+      <c r="C178" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0">
+        <v>179</v>
+      </c>
+      <c r="B179" s="0">
+        <v>118</v>
+      </c>
+      <c r="C179" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0">
+        <v>180</v>
+      </c>
+      <c r="B180" s="0">
+        <v>118</v>
+      </c>
+      <c r="C180" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0">
+        <v>181</v>
+      </c>
+      <c r="B181" s="0">
+        <v>118</v>
+      </c>
+      <c r="C181" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
